--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11826</v>
+        <v>11832</v>
       </c>
       <c r="D2" t="n">
-        <v>16234272</v>
+        <v>16242172</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22423</v>
+        <v>22432</v>
       </c>
       <c r="D4" t="n">
-        <v>28487266</v>
+        <v>28497037</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60579</v>
+        <v>60584</v>
       </c>
       <c r="D7" t="n">
-        <v>87092624</v>
+        <v>87099667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81053</v>
+        <v>81084</v>
       </c>
       <c r="D8" t="n">
-        <v>107744525</v>
+        <v>107782544</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31405</v>
+        <v>31439</v>
       </c>
       <c r="D9" t="n">
-        <v>43859343</v>
+        <v>43902172</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75137</v>
+        <v>75252</v>
       </c>
       <c r="D10" t="n">
-        <v>107344721</v>
+        <v>107508282</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10437</v>
+        <v>10461</v>
       </c>
       <c r="D11" t="n">
-        <v>13610990</v>
+        <v>13640976</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="D12" t="n">
-        <v>5545951</v>
+        <v>5547451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15343</v>
+        <v>15354</v>
       </c>
       <c r="D13" t="n">
-        <v>20777218</v>
+        <v>20791414</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50000</v>
+        <v>50070</v>
       </c>
       <c r="D14" t="n">
-        <v>67041787</v>
+        <v>67118552</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24668</v>
+        <v>24696</v>
       </c>
       <c r="D15" t="n">
-        <v>32135133</v>
+        <v>32171521</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>14222</v>
+        <v>15722</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47751</v>
+        <v>47818</v>
       </c>
       <c r="D17" t="n">
-        <v>60116585</v>
+        <v>60188534</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48068</v>
+        <v>48074</v>
       </c>
       <c r="D18" t="n">
-        <v>64138358</v>
+        <v>64146238</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38412</v>
+        <v>38519</v>
       </c>
       <c r="D19" t="n">
-        <v>47141425</v>
+        <v>47271839</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50935</v>
+        <v>50963</v>
       </c>
       <c r="D20" t="n">
-        <v>61793204</v>
+        <v>61822079</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="D21" t="n">
-        <v>5503107</v>
+        <v>5506107</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6214</v>
+        <v>6220</v>
       </c>
       <c r="D23" t="n">
-        <v>7801302</v>
+        <v>7807561</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>635635</v>
+        <v>638635</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14651</v>
+        <v>14652</v>
       </c>
       <c r="D26" t="n">
-        <v>20981005</v>
+        <v>20981468</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24467</v>
+        <v>24480</v>
       </c>
       <c r="D27" t="n">
-        <v>32020068</v>
+        <v>32038181</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3468</v>
+        <v>3474</v>
       </c>
       <c r="D28" t="n">
-        <v>4706501</v>
+        <v>4713901</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21434</v>
+        <v>21468</v>
       </c>
       <c r="D29" t="n">
-        <v>30390093</v>
+        <v>30437962</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="D30" t="n">
-        <v>2421469</v>
+        <v>2428969</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="D32" t="n">
-        <v>4378190</v>
+        <v>4381953</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9559</v>
+        <v>9565</v>
       </c>
       <c r="D33" t="n">
-        <v>12755220</v>
+        <v>12762394</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4959</v>
+        <v>4961</v>
       </c>
       <c r="D34" t="n">
-        <v>6340956</v>
+        <v>6343956</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7197</v>
+        <v>7209</v>
       </c>
       <c r="D36" t="n">
-        <v>8500086</v>
+        <v>8512020</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9694</v>
+        <v>9718</v>
       </c>
       <c r="D38" t="n">
-        <v>11541409</v>
+        <v>11567171</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15283</v>
+        <v>15288</v>
       </c>
       <c r="D39" t="n">
-        <v>18684075</v>
+        <v>18689070</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D40" t="n">
-        <v>4495273</v>
+        <v>4496466</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8391</v>
+        <v>8404</v>
       </c>
       <c r="D42" t="n">
-        <v>10222940</v>
+        <v>10234751</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26041</v>
+        <v>26050</v>
       </c>
       <c r="D46" t="n">
-        <v>34666146</v>
+        <v>34677205</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4718</v>
+        <v>4721</v>
       </c>
       <c r="D47" t="n">
-        <v>6520903</v>
+        <v>6525173</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27596</v>
+        <v>27619</v>
       </c>
       <c r="D48" t="n">
-        <v>39428226</v>
+        <v>39457189</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3250</v>
+        <v>3259</v>
       </c>
       <c r="D49" t="n">
-        <v>4101883</v>
+        <v>4112765</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4929</v>
+        <v>4931</v>
       </c>
       <c r="D51" t="n">
-        <v>6432875</v>
+        <v>6435875</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14305</v>
+        <v>14326</v>
       </c>
       <c r="D52" t="n">
-        <v>19093685</v>
+        <v>19123101</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6184</v>
+        <v>6189</v>
       </c>
       <c r="D53" t="n">
-        <v>7741839</v>
+        <v>7747831</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8019</v>
+        <v>8027</v>
       </c>
       <c r="D55" t="n">
-        <v>9658533</v>
+        <v>9665647</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17488</v>
+        <v>17489</v>
       </c>
       <c r="D56" t="n">
-        <v>23475111</v>
+        <v>23475950</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11815</v>
+        <v>11841</v>
       </c>
       <c r="D57" t="n">
-        <v>14113712</v>
+        <v>14144748</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17122</v>
+        <v>17127</v>
       </c>
       <c r="D58" t="n">
-        <v>21030012</v>
+        <v>21035216</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="D59" t="n">
-        <v>3954607</v>
+        <v>3957607</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5335</v>
+        <v>5342</v>
       </c>
       <c r="D60" t="n">
-        <v>6719110</v>
+        <v>6723856</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19996</v>
+        <v>20011</v>
       </c>
       <c r="D64" t="n">
-        <v>26053357</v>
+        <v>26074536</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5444</v>
+        <v>5446</v>
       </c>
       <c r="D65" t="n">
-        <v>7617287</v>
+        <v>7620287</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17425</v>
+        <v>17453</v>
       </c>
       <c r="D66" t="n">
-        <v>24868877</v>
+        <v>24906890</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="D67" t="n">
-        <v>2735874</v>
+        <v>2738785</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D68" t="n">
-        <v>1096968</v>
+        <v>1098468</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="D69" t="n">
-        <v>4596498</v>
+        <v>4600998</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9015</v>
+        <v>9024</v>
       </c>
       <c r="D70" t="n">
-        <v>12103457</v>
+        <v>12114664</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="D71" t="n">
-        <v>6444784</v>
+        <v>6445784</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5783</v>
+        <v>5792</v>
       </c>
       <c r="D73" t="n">
-        <v>7081415</v>
+        <v>7090672</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8997</v>
+        <v>8999</v>
       </c>
       <c r="D74" t="n">
-        <v>11838599</v>
+        <v>11840525</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8612</v>
+        <v>8629</v>
       </c>
       <c r="D75" t="n">
-        <v>10549832</v>
+        <v>10568404</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13704</v>
+        <v>13713</v>
       </c>
       <c r="D76" t="n">
-        <v>16754231</v>
+        <v>16762178</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="D77" t="n">
-        <v>3763998</v>
+        <v>3766998</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="D80" t="n">
-        <v>6865585</v>
+        <v>6867085</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5523</v>
+        <v>5528</v>
       </c>
       <c r="D81" t="n">
-        <v>7691653</v>
+        <v>7698359</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7106</v>
+        <v>7122</v>
       </c>
       <c r="D83" t="n">
-        <v>10185851</v>
+        <v>10204931</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="D86" t="n">
-        <v>2133326</v>
+        <v>2136286</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3805</v>
+        <v>3809</v>
       </c>
       <c r="D87" t="n">
-        <v>5272583</v>
+        <v>5277836</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="D88" t="n">
-        <v>2905058</v>
+        <v>2908058</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D91" t="n">
-        <v>2065661</v>
+        <v>2070559</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5663</v>
+        <v>5666</v>
       </c>
       <c r="D93" t="n">
-        <v>7907337</v>
+        <v>7910837</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10914</v>
+        <v>10921</v>
       </c>
       <c r="D95" t="n">
-        <v>14103696</v>
+        <v>14110853</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30435</v>
+        <v>30438</v>
       </c>
       <c r="D98" t="n">
-        <v>43706942</v>
+        <v>43710982</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>45533</v>
+        <v>45554</v>
       </c>
       <c r="D99" t="n">
-        <v>60264217</v>
+        <v>60294826</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10306</v>
+        <v>10315</v>
       </c>
       <c r="D100" t="n">
-        <v>14153939</v>
+        <v>14167439</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>35421</v>
+        <v>35460</v>
       </c>
       <c r="D101" t="n">
-        <v>50741744</v>
+        <v>50794632</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4209</v>
+        <v>4217</v>
       </c>
       <c r="D102" t="n">
-        <v>5403255</v>
+        <v>5412347</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6002</v>
+        <v>6006</v>
       </c>
       <c r="D104" t="n">
-        <v>8045773</v>
+        <v>8051603</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21126</v>
+        <v>21149</v>
       </c>
       <c r="D105" t="n">
-        <v>28126444</v>
+        <v>28150299</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9658</v>
+        <v>9666</v>
       </c>
       <c r="D106" t="n">
-        <v>12417961</v>
+        <v>12428210</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12002</v>
+        <v>12017</v>
       </c>
       <c r="D108" t="n">
-        <v>14409896</v>
+        <v>14424654</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21742</v>
+        <v>21748</v>
       </c>
       <c r="D109" t="n">
-        <v>29531797</v>
+        <v>29536361</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16371</v>
+        <v>16425</v>
       </c>
       <c r="D110" t="n">
-        <v>19456752</v>
+        <v>19512144</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>31234</v>
+        <v>31243</v>
       </c>
       <c r="D111" t="n">
-        <v>37407804</v>
+        <v>37417906</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8011</v>
+        <v>8019</v>
       </c>
       <c r="D113" t="n">
-        <v>10987857</v>
+        <v>10999357</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9087</v>
+        <v>9089</v>
       </c>
       <c r="D119" t="n">
-        <v>12633193</v>
+        <v>12635401</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2666</v>
+        <v>2671</v>
       </c>
       <c r="D120" t="n">
-        <v>3719883</v>
+        <v>3725416</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8510</v>
+        <v>8524</v>
       </c>
       <c r="D121" t="n">
-        <v>12153058</v>
+        <v>12173183</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D122" t="n">
-        <v>1211016</v>
+        <v>1214016</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D124" t="n">
-        <v>1752772</v>
+        <v>1755152</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4771</v>
+        <v>4784</v>
       </c>
       <c r="D126" t="n">
-        <v>6577069</v>
+        <v>6596461</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D127" t="n">
-        <v>2600214</v>
+        <v>2603134</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="D129" t="n">
-        <v>2568054</v>
+        <v>2576923</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3817</v>
+        <v>3822</v>
       </c>
       <c r="D132" t="n">
-        <v>6523902</v>
+        <v>6537402</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D133" t="n">
-        <v>243237</v>
+        <v>246237</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="D134" t="n">
-        <v>3326386</v>
+        <v>3349886</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4762</v>
+        <v>4773</v>
       </c>
       <c r="D137" t="n">
-        <v>9925194</v>
+        <v>9958194</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4081</v>
+        <v>4086</v>
       </c>
       <c r="D138" t="n">
-        <v>7951795</v>
+        <v>7966795</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D139" t="n">
-        <v>2704774</v>
+        <v>2708387</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2831</v>
+        <v>2846</v>
       </c>
       <c r="D140" t="n">
-        <v>5553782</v>
+        <v>5594738</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D141" t="n">
-        <v>724113</v>
+        <v>730113</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D143" t="n">
-        <v>668053</v>
+        <v>685053</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="D144" t="n">
-        <v>3142776</v>
+        <v>3148776</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1799</v>
+        <v>1812</v>
       </c>
       <c r="D145" t="n">
-        <v>3512942</v>
+        <v>3541092</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D146" t="n">
-        <v>1161268</v>
+        <v>1162968</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="D149" t="n">
-        <v>2283398</v>
+        <v>2295121</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="D150" t="n">
-        <v>4025449</v>
+        <v>4026949</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8377</v>
+        <v>8382</v>
       </c>
       <c r="D152" t="n">
-        <v>10322181</v>
+        <v>10325195</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>25048</v>
+        <v>25054</v>
       </c>
       <c r="D155" t="n">
-        <v>35583677</v>
+        <v>35591652</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>43502</v>
+        <v>43519</v>
       </c>
       <c r="D156" t="n">
-        <v>55228928</v>
+        <v>55246190</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>16748</v>
+        <v>16776</v>
       </c>
       <c r="D157" t="n">
-        <v>23210172</v>
+        <v>23248122</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>34453</v>
+        <v>34500</v>
       </c>
       <c r="D158" t="n">
-        <v>49375711</v>
+        <v>49442783</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4181</v>
+        <v>4187</v>
       </c>
       <c r="D159" t="n">
-        <v>5402684</v>
+        <v>5411304</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5370</v>
+        <v>5374</v>
       </c>
       <c r="D161" t="n">
-        <v>7189856</v>
+        <v>7195429</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20362</v>
+        <v>20381</v>
       </c>
       <c r="D162" t="n">
-        <v>27445076</v>
+        <v>27465122</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>9495</v>
+        <v>9515</v>
       </c>
       <c r="D163" t="n">
-        <v>12016610</v>
+        <v>12042064</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10525</v>
+        <v>10537</v>
       </c>
       <c r="D165" t="n">
-        <v>12800173</v>
+        <v>12809537</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22292</v>
+        <v>22294</v>
       </c>
       <c r="D166" t="n">
-        <v>30140797</v>
+        <v>30143797</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>15894</v>
+        <v>15940</v>
       </c>
       <c r="D167" t="n">
-        <v>19257892</v>
+        <v>19310409</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>29593</v>
+        <v>29602</v>
       </c>
       <c r="D168" t="n">
-        <v>34673508</v>
+        <v>34684291</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D169" t="n">
-        <v>1249750</v>
+        <v>1251250</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>23435</v>
+        <v>23477</v>
       </c>
       <c r="D171" t="n">
-        <v>31172595</v>
+        <v>31219726</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>67266</v>
+        <v>67272</v>
       </c>
       <c r="D174" t="n">
-        <v>96993004</v>
+        <v>97000704</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>126395</v>
+        <v>126573</v>
       </c>
       <c r="D175" t="n">
-        <v>173223417</v>
+        <v>173473308</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>249142</v>
+        <v>249600</v>
       </c>
       <c r="D176" t="n">
-        <v>357014158</v>
+        <v>357637429</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>101160</v>
+        <v>101435</v>
       </c>
       <c r="D177" t="n">
-        <v>148205253</v>
+        <v>148609257</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>45422</v>
+        <v>45535</v>
       </c>
       <c r="D178" t="n">
-        <v>62102472</v>
+        <v>62256155</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8915</v>
+        <v>8917</v>
       </c>
       <c r="D179" t="n">
-        <v>12759547</v>
+        <v>12762147</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22466</v>
+        <v>22492</v>
       </c>
       <c r="D180" t="n">
-        <v>31714706</v>
+        <v>31752018</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>151636</v>
+        <v>151886</v>
       </c>
       <c r="D181" t="n">
-        <v>207689009</v>
+        <v>208021106</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>48067</v>
+        <v>48162</v>
       </c>
       <c r="D182" t="n">
-        <v>64831279</v>
+        <v>64964668</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>44657</v>
+        <v>44750</v>
       </c>
       <c r="D184" t="n">
-        <v>54308543</v>
+        <v>54399703</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59107</v>
+        <v>59114</v>
       </c>
       <c r="D185" t="n">
-        <v>79593650</v>
+        <v>79601832</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>89246</v>
+        <v>89572</v>
       </c>
       <c r="D186" t="n">
-        <v>114476100</v>
+        <v>114863685</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>65448</v>
+        <v>65487</v>
       </c>
       <c r="D187" t="n">
-        <v>85020388</v>
+        <v>85070079</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5295</v>
+        <v>5303</v>
       </c>
       <c r="D188" t="n">
-        <v>7030220</v>
+        <v>7042091</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14110</v>
+        <v>14114</v>
       </c>
       <c r="D194" t="n">
-        <v>19167235</v>
+        <v>19173235</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="D195" t="n">
-        <v>2919904</v>
+        <v>2921404</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9182</v>
+        <v>9198</v>
       </c>
       <c r="D196" t="n">
-        <v>12951324</v>
+        <v>12971676</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D198" t="n">
-        <v>598998</v>
+        <v>600498</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="D200" t="n">
-        <v>6381126</v>
+        <v>6384126</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="D201" t="n">
-        <v>4078864</v>
+        <v>4084864</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="D202" t="n">
-        <v>5024919</v>
+        <v>5027106</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3365</v>
+        <v>3371</v>
       </c>
       <c r="D204" t="n">
-        <v>4435550</v>
+        <v>4443614</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2068</v>
+        <v>2074</v>
       </c>
       <c r="D206" t="n">
-        <v>2635561</v>
+        <v>2642063</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="D207" t="n">
-        <v>2939301</v>
+        <v>2944464</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5795</v>
+        <v>5804</v>
       </c>
       <c r="D211" t="n">
-        <v>7970162</v>
+        <v>7982226</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="D212" t="n">
-        <v>3177341</v>
+        <v>3187841</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4203</v>
+        <v>4216</v>
       </c>
       <c r="D213" t="n">
-        <v>6005288</v>
+        <v>6024456</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D214" t="n">
-        <v>847853</v>
+        <v>849353</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D216" t="n">
-        <v>1060841</v>
+        <v>1063841</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D217" t="n">
-        <v>3717897</v>
+        <v>3721397</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2922</v>
+        <v>2930</v>
       </c>
       <c r="D218" t="n">
-        <v>4006092</v>
+        <v>4017454</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D219" t="n">
-        <v>1919715</v>
+        <v>1923769</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="D221" t="n">
-        <v>1845729</v>
+        <v>1852227</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5585</v>
+        <v>5598</v>
       </c>
       <c r="D224" t="n">
-        <v>11459171</v>
+        <v>11494271</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3322</v>
+        <v>3330</v>
       </c>
       <c r="D227" t="n">
-        <v>6828913</v>
+        <v>6849913</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15102</v>
+        <v>15113</v>
       </c>
       <c r="D228" t="n">
-        <v>30134656</v>
+        <v>30165156</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="D229" t="n">
-        <v>5709174</v>
+        <v>5721174</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D235" t="n">
-        <v>1145967</v>
+        <v>1163857</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>5830</v>
+        <v>5837</v>
       </c>
       <c r="D242" t="n">
-        <v>7346093</v>
+        <v>7355607</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>27263</v>
+        <v>27270</v>
       </c>
       <c r="D246" t="n">
-        <v>35473403</v>
+        <v>35483146</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5695</v>
+        <v>5707</v>
       </c>
       <c r="D247" t="n">
-        <v>7882049</v>
+        <v>7897909</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>23123</v>
+        <v>23141</v>
       </c>
       <c r="D248" t="n">
-        <v>33016777</v>
+        <v>33041379</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="D249" t="n">
-        <v>2871811</v>
+        <v>2874345</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="D251" t="n">
-        <v>5332656</v>
+        <v>5335406</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>12042</v>
+        <v>12060</v>
       </c>
       <c r="D252" t="n">
-        <v>16173051</v>
+        <v>16194497</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5890</v>
+        <v>5900</v>
       </c>
       <c r="D253" t="n">
-        <v>7512383</v>
+        <v>7524849</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>6860</v>
+        <v>6870</v>
       </c>
       <c r="D255" t="n">
-        <v>8134288</v>
+        <v>8145359</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>10230</v>
+        <v>10255</v>
       </c>
       <c r="D257" t="n">
-        <v>12393676</v>
+        <v>12419558</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>18076</v>
+        <v>18079</v>
       </c>
       <c r="D258" t="n">
-        <v>21886711</v>
+        <v>21890875</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>12812</v>
+        <v>12826</v>
       </c>
       <c r="D259" t="n">
-        <v>17731484</v>
+        <v>17748725</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>17949</v>
+        <v>17966</v>
       </c>
       <c r="D261" t="n">
-        <v>21969246</v>
+        <v>21989824</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>45157</v>
+        <v>45164</v>
       </c>
       <c r="D264" t="n">
-        <v>64036100</v>
+        <v>64045386</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>67106</v>
+        <v>67134</v>
       </c>
       <c r="D265" t="n">
-        <v>87949402</v>
+        <v>87987427</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>14675</v>
+        <v>14688</v>
       </c>
       <c r="D266" t="n">
-        <v>20260679</v>
+        <v>20277880</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>51704</v>
+        <v>51757</v>
       </c>
       <c r="D267" t="n">
-        <v>72861107</v>
+        <v>72935584</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6609</v>
+        <v>6620</v>
       </c>
       <c r="D268" t="n">
-        <v>8545697</v>
+        <v>8559155</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>11717</v>
+        <v>11724</v>
       </c>
       <c r="D270" t="n">
-        <v>15468018</v>
+        <v>15478387</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>34806</v>
+        <v>34855</v>
       </c>
       <c r="D271" t="n">
-        <v>46494886</v>
+        <v>46553370</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>18276</v>
+        <v>18292</v>
       </c>
       <c r="D272" t="n">
-        <v>23153777</v>
+        <v>23173749</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>20267</v>
+        <v>20301</v>
       </c>
       <c r="D274" t="n">
-        <v>23428035</v>
+        <v>23458746</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>34671</v>
+        <v>34676</v>
       </c>
       <c r="D275" t="n">
-        <v>45635431</v>
+        <v>45640816</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>25628</v>
+        <v>25686</v>
       </c>
       <c r="D276" t="n">
-        <v>30757786</v>
+        <v>30819040</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>41824</v>
+        <v>41849</v>
       </c>
       <c r="D277" t="n">
-        <v>49869564</v>
+        <v>49898292</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>13894</v>
+        <v>13908</v>
       </c>
       <c r="D278" t="n">
-        <v>18693892</v>
+        <v>18709817</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>19492</v>
+        <v>19512</v>
       </c>
       <c r="D280" t="n">
-        <v>24033758</v>
+        <v>24053332</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>58189</v>
+        <v>58191</v>
       </c>
       <c r="D283" t="n">
-        <v>82415439</v>
+        <v>82417483</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>76025</v>
+        <v>76050</v>
       </c>
       <c r="D284" t="n">
-        <v>99733316</v>
+        <v>99762389</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>17054</v>
+        <v>17068</v>
       </c>
       <c r="D285" t="n">
-        <v>23233050</v>
+        <v>23252706</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>63393</v>
+        <v>63470</v>
       </c>
       <c r="D286" t="n">
-        <v>89542878</v>
+        <v>89644025</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7947</v>
+        <v>7961</v>
       </c>
       <c r="D287" t="n">
-        <v>10114005</v>
+        <v>10128198</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="D288" t="n">
-        <v>4316367</v>
+        <v>4319275</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>13281</v>
+        <v>13287</v>
       </c>
       <c r="D289" t="n">
-        <v>17693017</v>
+        <v>17701291</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>39909</v>
+        <v>39960</v>
       </c>
       <c r="D290" t="n">
-        <v>53681242</v>
+        <v>53739088</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>19772</v>
+        <v>19781</v>
       </c>
       <c r="D291" t="n">
-        <v>25033712</v>
+        <v>25047102</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>24956</v>
+        <v>25002</v>
       </c>
       <c r="D293" t="n">
-        <v>29006744</v>
+        <v>29046266</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>37977</v>
+        <v>37979</v>
       </c>
       <c r="D294" t="n">
-        <v>50229054</v>
+        <v>50231154</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>30552</v>
+        <v>30636</v>
       </c>
       <c r="D295" t="n">
-        <v>36720279</v>
+        <v>36814973</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>43119</v>
+        <v>43139</v>
       </c>
       <c r="D296" t="n">
-        <v>50030343</v>
+        <v>50048234</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4158</v>
+        <v>4160</v>
       </c>
       <c r="D297" t="n">
-        <v>5802312</v>
+        <v>5802946</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8060</v>
+        <v>8072</v>
       </c>
       <c r="D299" t="n">
-        <v>9908589</v>
+        <v>9921779</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18240</v>
+        <v>18244</v>
       </c>
       <c r="D302" t="n">
-        <v>26116517</v>
+        <v>26121528</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>29089</v>
+        <v>29102</v>
       </c>
       <c r="D303" t="n">
-        <v>37991210</v>
+        <v>38009233</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>7592</v>
+        <v>7596</v>
       </c>
       <c r="D304" t="n">
-        <v>10640883</v>
+        <v>10646659</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>24718</v>
+        <v>24752</v>
       </c>
       <c r="D305" t="n">
-        <v>35293624</v>
+        <v>35339123</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3856</v>
+        <v>3867</v>
       </c>
       <c r="D306" t="n">
-        <v>4940696</v>
+        <v>4954209</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5784</v>
+        <v>5787</v>
       </c>
       <c r="D308" t="n">
-        <v>7728253</v>
+        <v>7732753</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>18527</v>
+        <v>18555</v>
       </c>
       <c r="D309" t="n">
-        <v>24896689</v>
+        <v>24930583</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7118</v>
+        <v>7127</v>
       </c>
       <c r="D310" t="n">
-        <v>9248901</v>
+        <v>9260612</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>9081</v>
+        <v>9097</v>
       </c>
       <c r="D311" t="n">
-        <v>10788457</v>
+        <v>10805457</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19306</v>
+        <v>19309</v>
       </c>
       <c r="D312" t="n">
-        <v>25384196</v>
+        <v>25386716</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>14110</v>
+        <v>14154</v>
       </c>
       <c r="D313" t="n">
-        <v>17161973</v>
+        <v>17205585</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>20940</v>
+        <v>20947</v>
       </c>
       <c r="D314" t="n">
-        <v>25646122</v>
+        <v>25653020</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>5696</v>
+        <v>5703</v>
       </c>
       <c r="D315" t="n">
-        <v>7737613</v>
+        <v>7744622</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>18598</v>
+        <v>18612</v>
       </c>
       <c r="D317" t="n">
-        <v>23976381</v>
+        <v>23994778</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>51141</v>
+        <v>51150</v>
       </c>
       <c r="D320" t="n">
-        <v>72894143</v>
+        <v>72906609</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>80731</v>
+        <v>80782</v>
       </c>
       <c r="D321" t="n">
-        <v>107256704</v>
+        <v>107320785</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>30441</v>
+        <v>30468</v>
       </c>
       <c r="D322" t="n">
-        <v>42826952</v>
+        <v>42866267</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>62020</v>
+        <v>62247</v>
       </c>
       <c r="D323" t="n">
-        <v>89170465</v>
+        <v>89493782</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8675</v>
+        <v>8698</v>
       </c>
       <c r="D324" t="n">
-        <v>11323960</v>
+        <v>11351731</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="D325" t="n">
-        <v>4957310</v>
+        <v>4958810</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>16634</v>
+        <v>16645</v>
       </c>
       <c r="D326" t="n">
-        <v>22916589</v>
+        <v>22929453</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>42994</v>
+        <v>43043</v>
       </c>
       <c r="D327" t="n">
-        <v>58110228</v>
+        <v>58174754</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>24687</v>
+        <v>24714</v>
       </c>
       <c r="D328" t="n">
-        <v>32152866</v>
+        <v>32182863</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>26674</v>
+        <v>26702</v>
       </c>
       <c r="D330" t="n">
-        <v>32070432</v>
+        <v>32104801</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>34899</v>
+        <v>34901</v>
       </c>
       <c r="D331" t="n">
-        <v>46304775</v>
+        <v>46307418</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>28559</v>
+        <v>28650</v>
       </c>
       <c r="D332" t="n">
-        <v>35502285</v>
+        <v>35609440</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>43391</v>
+        <v>43413</v>
       </c>
       <c r="D333" t="n">
-        <v>51705679</v>
+        <v>51729970</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11832</v>
+        <v>11840</v>
       </c>
       <c r="D2" t="n">
-        <v>16242172</v>
+        <v>16253207</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22432</v>
+        <v>22447</v>
       </c>
       <c r="D4" t="n">
-        <v>28497037</v>
+        <v>28514943</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60584</v>
+        <v>60590</v>
       </c>
       <c r="D7" t="n">
-        <v>87099667</v>
+        <v>87107192</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81084</v>
+        <v>81110</v>
       </c>
       <c r="D8" t="n">
-        <v>107782544</v>
+        <v>107811557</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31439</v>
+        <v>31461</v>
       </c>
       <c r="D9" t="n">
-        <v>43902172</v>
+        <v>43934544</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75252</v>
+        <v>75329</v>
       </c>
       <c r="D10" t="n">
-        <v>107508282</v>
+        <v>107611873</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10461</v>
+        <v>10469</v>
       </c>
       <c r="D11" t="n">
-        <v>13640976</v>
+        <v>13651118</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="D12" t="n">
-        <v>5547451</v>
+        <v>5548691</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15354</v>
+        <v>15362</v>
       </c>
       <c r="D13" t="n">
-        <v>20791414</v>
+        <v>20803118</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50070</v>
+        <v>50120</v>
       </c>
       <c r="D14" t="n">
-        <v>67118552</v>
+        <v>67178646</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24696</v>
+        <v>24723</v>
       </c>
       <c r="D15" t="n">
-        <v>32171521</v>
+        <v>32203785</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47818</v>
+        <v>47860</v>
       </c>
       <c r="D17" t="n">
-        <v>60188534</v>
+        <v>60233093</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48074</v>
+        <v>48078</v>
       </c>
       <c r="D18" t="n">
-        <v>64146238</v>
+        <v>64150570</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38519</v>
+        <v>38609</v>
       </c>
       <c r="D19" t="n">
-        <v>47271839</v>
+        <v>47381041</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50963</v>
+        <v>50983</v>
       </c>
       <c r="D20" t="n">
-        <v>61822079</v>
+        <v>61839001</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="D21" t="n">
-        <v>5506107</v>
+        <v>5510607</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6220</v>
+        <v>6225</v>
       </c>
       <c r="D23" t="n">
-        <v>7807561</v>
+        <v>7811595</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14652</v>
+        <v>14654</v>
       </c>
       <c r="D26" t="n">
-        <v>20981468</v>
+        <v>20984468</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24480</v>
+        <v>24494</v>
       </c>
       <c r="D27" t="n">
-        <v>32038181</v>
+        <v>32054911</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="D28" t="n">
-        <v>4713901</v>
+        <v>4718101</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21468</v>
+        <v>21485</v>
       </c>
       <c r="D29" t="n">
-        <v>30437962</v>
+        <v>30461062</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="D30" t="n">
-        <v>2428969</v>
+        <v>2435797</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D31" t="n">
-        <v>1230394</v>
+        <v>1231894</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="D32" t="n">
-        <v>4381953</v>
+        <v>4386453</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9565</v>
+        <v>9576</v>
       </c>
       <c r="D33" t="n">
-        <v>12762394</v>
+        <v>12776345</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="D34" t="n">
-        <v>6343956</v>
+        <v>6349956</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7209</v>
+        <v>7212</v>
       </c>
       <c r="D36" t="n">
-        <v>8512020</v>
+        <v>8516418</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9718</v>
+        <v>9740</v>
       </c>
       <c r="D38" t="n">
-        <v>11567171</v>
+        <v>11588516</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15288</v>
+        <v>15298</v>
       </c>
       <c r="D39" t="n">
-        <v>18689070</v>
+        <v>18700247</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3290</v>
+        <v>3295</v>
       </c>
       <c r="D40" t="n">
-        <v>4496466</v>
+        <v>4501421</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8404</v>
+        <v>8410</v>
       </c>
       <c r="D42" t="n">
-        <v>10234751</v>
+        <v>10241849</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16163</v>
+        <v>16164</v>
       </c>
       <c r="D45" t="n">
-        <v>23037305</v>
+        <v>23038805</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26050</v>
+        <v>26053</v>
       </c>
       <c r="D46" t="n">
-        <v>34677205</v>
+        <v>34681024</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4721</v>
+        <v>4722</v>
       </c>
       <c r="D47" t="n">
-        <v>6525173</v>
+        <v>6526673</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27619</v>
+        <v>27634</v>
       </c>
       <c r="D48" t="n">
-        <v>39457189</v>
+        <v>39479887</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3259</v>
+        <v>3264</v>
       </c>
       <c r="D49" t="n">
-        <v>4112765</v>
+        <v>4117839</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="D51" t="n">
-        <v>6435875</v>
+        <v>6436625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14326</v>
+        <v>14346</v>
       </c>
       <c r="D52" t="n">
-        <v>19123101</v>
+        <v>19148877</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6189</v>
+        <v>6194</v>
       </c>
       <c r="D53" t="n">
-        <v>7747831</v>
+        <v>7754118</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8027</v>
+        <v>8033</v>
       </c>
       <c r="D55" t="n">
-        <v>9665647</v>
+        <v>9673561</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17489</v>
+        <v>17491</v>
       </c>
       <c r="D56" t="n">
-        <v>23475950</v>
+        <v>23478950</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11841</v>
+        <v>11869</v>
       </c>
       <c r="D57" t="n">
-        <v>14144748</v>
+        <v>14176522</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17127</v>
+        <v>17131</v>
       </c>
       <c r="D58" t="n">
-        <v>21035216</v>
+        <v>21037933</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5342</v>
+        <v>5351</v>
       </c>
       <c r="D60" t="n">
-        <v>6723856</v>
+        <v>6733762</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20011</v>
+        <v>20016</v>
       </c>
       <c r="D64" t="n">
-        <v>26074536</v>
+        <v>26079546</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5446</v>
+        <v>5448</v>
       </c>
       <c r="D65" t="n">
-        <v>7620287</v>
+        <v>7623287</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17453</v>
+        <v>17470</v>
       </c>
       <c r="D66" t="n">
-        <v>24906890</v>
+        <v>24927864</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="D67" t="n">
-        <v>2738785</v>
+        <v>2743762</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="D69" t="n">
-        <v>4600998</v>
+        <v>4604033</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9024</v>
+        <v>9034</v>
       </c>
       <c r="D70" t="n">
-        <v>12114664</v>
+        <v>12127894</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5048</v>
+        <v>5051</v>
       </c>
       <c r="D71" t="n">
-        <v>6445784</v>
+        <v>6450001</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5792</v>
+        <v>5798</v>
       </c>
       <c r="D73" t="n">
-        <v>7090672</v>
+        <v>7097066</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8999</v>
+        <v>9001</v>
       </c>
       <c r="D74" t="n">
-        <v>11840525</v>
+        <v>11842923</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8629</v>
+        <v>8641</v>
       </c>
       <c r="D75" t="n">
-        <v>10568404</v>
+        <v>10584291</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13713</v>
+        <v>13715</v>
       </c>
       <c r="D76" t="n">
-        <v>16762178</v>
+        <v>16765178</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="D77" t="n">
-        <v>3766998</v>
+        <v>3768498</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="D78" t="n">
-        <v>2804975</v>
+        <v>2810975</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="D80" t="n">
-        <v>6867085</v>
+        <v>6868555</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5528</v>
+        <v>5531</v>
       </c>
       <c r="D81" t="n">
-        <v>7698359</v>
+        <v>7702859</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D82" t="n">
-        <v>1461716</v>
+        <v>1466216</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7122</v>
+        <v>7127</v>
       </c>
       <c r="D83" t="n">
-        <v>10204931</v>
+        <v>10210911</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D84" t="n">
-        <v>542738</v>
+        <v>544238</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="D86" t="n">
-        <v>2136286</v>
+        <v>2147911</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3809</v>
+        <v>3811</v>
       </c>
       <c r="D87" t="n">
-        <v>5277836</v>
+        <v>5280836</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="D88" t="n">
-        <v>2908058</v>
+        <v>2909658</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D89" t="n">
-        <v>1467985</v>
+        <v>1469485</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D91" t="n">
-        <v>2070559</v>
+        <v>2072171</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="D92" t="n">
-        <v>3463788</v>
+        <v>3466138</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5666</v>
+        <v>5676</v>
       </c>
       <c r="D93" t="n">
-        <v>7910837</v>
+        <v>7925837</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10921</v>
+        <v>10930</v>
       </c>
       <c r="D95" t="n">
-        <v>14110853</v>
+        <v>14120387</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30438</v>
+        <v>30440</v>
       </c>
       <c r="D98" t="n">
-        <v>43710982</v>
+        <v>43713827</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>45554</v>
+        <v>45562</v>
       </c>
       <c r="D99" t="n">
-        <v>60294826</v>
+        <v>60303745</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10315</v>
+        <v>10322</v>
       </c>
       <c r="D100" t="n">
-        <v>14167439</v>
+        <v>14175789</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>35460</v>
+        <v>35493</v>
       </c>
       <c r="D101" t="n">
-        <v>50794632</v>
+        <v>50840148</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4217</v>
+        <v>4222</v>
       </c>
       <c r="D102" t="n">
-        <v>5412347</v>
+        <v>5417222</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6006</v>
+        <v>6008</v>
       </c>
       <c r="D104" t="n">
-        <v>8051603</v>
+        <v>8054603</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21149</v>
+        <v>21173</v>
       </c>
       <c r="D105" t="n">
-        <v>28150299</v>
+        <v>28177557</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9666</v>
+        <v>9673</v>
       </c>
       <c r="D106" t="n">
-        <v>12428210</v>
+        <v>12437748</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12017</v>
+        <v>12028</v>
       </c>
       <c r="D108" t="n">
-        <v>14424654</v>
+        <v>14437426</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21748</v>
+        <v>21752</v>
       </c>
       <c r="D109" t="n">
-        <v>29536361</v>
+        <v>29539463</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16425</v>
+        <v>16449</v>
       </c>
       <c r="D110" t="n">
-        <v>19512144</v>
+        <v>19533343</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>31243</v>
+        <v>31251</v>
       </c>
       <c r="D111" t="n">
-        <v>37417906</v>
+        <v>37426730</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8019</v>
+        <v>8022</v>
       </c>
       <c r="D113" t="n">
-        <v>10999357</v>
+        <v>11003857</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5556</v>
+        <v>5559</v>
       </c>
       <c r="D118" t="n">
-        <v>8031441</v>
+        <v>8035941</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9089</v>
+        <v>9090</v>
       </c>
       <c r="D119" t="n">
-        <v>12635401</v>
+        <v>12636901</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="D120" t="n">
-        <v>3725416</v>
+        <v>3732916</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8524</v>
+        <v>8540</v>
       </c>
       <c r="D121" t="n">
-        <v>12173183</v>
+        <v>12196650</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D122" t="n">
-        <v>1214016</v>
+        <v>1215016</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D123" t="n">
-        <v>428460</v>
+        <v>434460</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="D125" t="n">
-        <v>4732322</v>
+        <v>4735322</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4784</v>
+        <v>4788</v>
       </c>
       <c r="D126" t="n">
-        <v>6596461</v>
+        <v>6602331</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D127" t="n">
-        <v>2603134</v>
+        <v>2606134</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D128" t="n">
-        <v>3293959</v>
+        <v>3295459</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="D129" t="n">
-        <v>2576923</v>
+        <v>2579723</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3822</v>
+        <v>3828</v>
       </c>
       <c r="D132" t="n">
-        <v>6537402</v>
+        <v>6549252</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D133" t="n">
-        <v>246237</v>
+        <v>249237</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="D134" t="n">
-        <v>3349886</v>
+        <v>3361818</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4773</v>
+        <v>4792</v>
       </c>
       <c r="D137" t="n">
-        <v>9958194</v>
+        <v>10015194</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="D138" t="n">
-        <v>7966795</v>
+        <v>7984103</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D139" t="n">
-        <v>2708387</v>
+        <v>2711219</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="D140" t="n">
-        <v>5594738</v>
+        <v>5605218</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D142" t="n">
-        <v>382993</v>
+        <v>388993</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D143" t="n">
-        <v>685053</v>
+        <v>688053</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="D144" t="n">
-        <v>3148776</v>
+        <v>3159640</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="D145" t="n">
-        <v>3541092</v>
+        <v>3558690</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D146" t="n">
-        <v>1162968</v>
+        <v>1165968</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D147" t="n">
-        <v>1200873</v>
+        <v>1203873</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D149" t="n">
-        <v>2295121</v>
+        <v>2298121</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D150" t="n">
-        <v>4026949</v>
+        <v>4028449</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8382</v>
+        <v>8389</v>
       </c>
       <c r="D152" t="n">
-        <v>10325195</v>
+        <v>10333686</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>25054</v>
+        <v>25060</v>
       </c>
       <c r="D155" t="n">
-        <v>35591652</v>
+        <v>35600058</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>43519</v>
+        <v>43537</v>
       </c>
       <c r="D156" t="n">
-        <v>55246190</v>
+        <v>55269061</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>16776</v>
+        <v>16790</v>
       </c>
       <c r="D157" t="n">
-        <v>23248122</v>
+        <v>23266818</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>34500</v>
+        <v>34541</v>
       </c>
       <c r="D158" t="n">
-        <v>49442783</v>
+        <v>49504074</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4187</v>
+        <v>4192</v>
       </c>
       <c r="D159" t="n">
-        <v>5411304</v>
+        <v>5417677</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="D161" t="n">
-        <v>7195429</v>
+        <v>7196929</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20381</v>
+        <v>20394</v>
       </c>
       <c r="D162" t="n">
-        <v>27465122</v>
+        <v>27481700</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>9515</v>
+        <v>9531</v>
       </c>
       <c r="D163" t="n">
-        <v>12042064</v>
+        <v>12066064</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10537</v>
+        <v>10544</v>
       </c>
       <c r="D165" t="n">
-        <v>12809537</v>
+        <v>12814417</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>15940</v>
+        <v>15971</v>
       </c>
       <c r="D167" t="n">
-        <v>19310409</v>
+        <v>19346514</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>29602</v>
+        <v>29607</v>
       </c>
       <c r="D168" t="n">
-        <v>34684291</v>
+        <v>34687668</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D169" t="n">
-        <v>1251250</v>
+        <v>1255850</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>23477</v>
+        <v>23494</v>
       </c>
       <c r="D171" t="n">
-        <v>31219726</v>
+        <v>31240384</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>67272</v>
+        <v>67284</v>
       </c>
       <c r="D174" t="n">
-        <v>97000704</v>
+        <v>97018203</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>126573</v>
+        <v>126673</v>
       </c>
       <c r="D175" t="n">
-        <v>173473308</v>
+        <v>173612134</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>249600</v>
+        <v>249897</v>
       </c>
       <c r="D176" t="n">
-        <v>357637429</v>
+        <v>358065855</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>101435</v>
+        <v>101614</v>
       </c>
       <c r="D177" t="n">
-        <v>148609257</v>
+        <v>148868587</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>45535</v>
+        <v>45618</v>
       </c>
       <c r="D178" t="n">
-        <v>62256155</v>
+        <v>62367631</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8917</v>
+        <v>8920</v>
       </c>
       <c r="D179" t="n">
-        <v>12762147</v>
+        <v>12766383</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22492</v>
+        <v>22514</v>
       </c>
       <c r="D180" t="n">
-        <v>31752018</v>
+        <v>31783797</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>151886</v>
+        <v>152105</v>
       </c>
       <c r="D181" t="n">
-        <v>208021106</v>
+        <v>208299845</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>48162</v>
+        <v>48226</v>
       </c>
       <c r="D182" t="n">
-        <v>64964668</v>
+        <v>65054849</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>44750</v>
+        <v>44809</v>
       </c>
       <c r="D184" t="n">
-        <v>54399703</v>
+        <v>54463607</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59114</v>
+        <v>59125</v>
       </c>
       <c r="D185" t="n">
-        <v>79601832</v>
+        <v>79611894</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>89572</v>
+        <v>89805</v>
       </c>
       <c r="D186" t="n">
-        <v>114863685</v>
+        <v>115154159</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>65487</v>
+        <v>65518</v>
       </c>
       <c r="D187" t="n">
-        <v>85070079</v>
+        <v>85105223</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5303</v>
+        <v>5309</v>
       </c>
       <c r="D188" t="n">
-        <v>7042091</v>
+        <v>7050931</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4279</v>
+        <v>4283</v>
       </c>
       <c r="D190" t="n">
-        <v>5708692</v>
+        <v>5712818</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14114</v>
+        <v>14115</v>
       </c>
       <c r="D194" t="n">
-        <v>19173235</v>
+        <v>19174735</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="D195" t="n">
-        <v>2921404</v>
+        <v>2924404</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9198</v>
+        <v>9209</v>
       </c>
       <c r="D196" t="n">
-        <v>12971676</v>
+        <v>12988631</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D197" t="n">
-        <v>1493093</v>
+        <v>1496093</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="D200" t="n">
-        <v>6384126</v>
+        <v>6385626</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="D201" t="n">
-        <v>4084864</v>
+        <v>4090838</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3896</v>
+        <v>3899</v>
       </c>
       <c r="D202" t="n">
-        <v>5027106</v>
+        <v>5029942</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5260</v>
+        <v>5262</v>
       </c>
       <c r="D203" t="n">
-        <v>7426892</v>
+        <v>7429512</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="D204" t="n">
-        <v>4443614</v>
+        <v>4448114</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="D206" t="n">
-        <v>2642063</v>
+        <v>2652513</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D207" t="n">
-        <v>2944464</v>
+        <v>2945664</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5804</v>
+        <v>5811</v>
       </c>
       <c r="D211" t="n">
-        <v>7982226</v>
+        <v>7991326</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="D212" t="n">
-        <v>3187841</v>
+        <v>3194006</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4216</v>
+        <v>4224</v>
       </c>
       <c r="D213" t="n">
-        <v>6024456</v>
+        <v>6033588</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D214" t="n">
-        <v>849353</v>
+        <v>860353</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2930</v>
+        <v>2935</v>
       </c>
       <c r="D218" t="n">
-        <v>4017454</v>
+        <v>4025452</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D219" t="n">
-        <v>1923769</v>
+        <v>1923989</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D221" t="n">
-        <v>1852227</v>
+        <v>1854107</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="D222" t="n">
-        <v>3805813</v>
+        <v>3808813</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5598</v>
+        <v>5601</v>
       </c>
       <c r="D224" t="n">
-        <v>11494271</v>
+        <v>11503271</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D225" t="n">
-        <v>2037051</v>
+        <v>2046051</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3330</v>
+        <v>3336</v>
       </c>
       <c r="D227" t="n">
-        <v>6849913</v>
+        <v>6867913</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15113</v>
+        <v>15129</v>
       </c>
       <c r="D228" t="n">
-        <v>30165156</v>
+        <v>30205356</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D229" t="n">
-        <v>5721174</v>
+        <v>5724174</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D235" t="n">
-        <v>1163857</v>
+        <v>1178857</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9326,10 +9326,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D237" t="n">
-        <v>489336</v>
+        <v>492336</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="D240" t="n">
-        <v>4548213</v>
+        <v>4552713</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>5837</v>
+        <v>5846</v>
       </c>
       <c r="D242" t="n">
-        <v>7355607</v>
+        <v>7367168</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9554,10 +9554,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D243" t="n">
-        <v>18199</v>
+        <v>18714</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15565</v>
+        <v>15568</v>
       </c>
       <c r="D245" t="n">
-        <v>22254809</v>
+        <v>22259309</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>27270</v>
+        <v>27278</v>
       </c>
       <c r="D246" t="n">
-        <v>35483146</v>
+        <v>35493864</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5707</v>
+        <v>5709</v>
       </c>
       <c r="D247" t="n">
-        <v>7897909</v>
+        <v>7900909</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>23141</v>
+        <v>23161</v>
       </c>
       <c r="D248" t="n">
-        <v>33041379</v>
+        <v>33069601</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D249" t="n">
-        <v>2874345</v>
+        <v>2877345</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D250" t="n">
-        <v>1678366</v>
+        <v>1679866</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>12060</v>
+        <v>12065</v>
       </c>
       <c r="D252" t="n">
-        <v>16194497</v>
+        <v>16200480</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>6870</v>
+        <v>6876</v>
       </c>
       <c r="D255" t="n">
-        <v>8145359</v>
+        <v>8152156</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>10255</v>
+        <v>10267</v>
       </c>
       <c r="D257" t="n">
-        <v>12419558</v>
+        <v>12435716</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>18079</v>
+        <v>18081</v>
       </c>
       <c r="D258" t="n">
-        <v>21890875</v>
+        <v>21893130</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>12826</v>
+        <v>12830</v>
       </c>
       <c r="D259" t="n">
-        <v>17748725</v>
+        <v>17754725</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>17966</v>
+        <v>17990</v>
       </c>
       <c r="D261" t="n">
-        <v>21989824</v>
+        <v>22018838</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>45164</v>
+        <v>45166</v>
       </c>
       <c r="D264" t="n">
-        <v>64045386</v>
+        <v>64047736</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>67134</v>
+        <v>67156</v>
       </c>
       <c r="D265" t="n">
-        <v>87987427</v>
+        <v>88014099</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>14688</v>
+        <v>14696</v>
       </c>
       <c r="D266" t="n">
-        <v>20277880</v>
+        <v>20288552</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>51757</v>
+        <v>51787</v>
       </c>
       <c r="D267" t="n">
-        <v>72935584</v>
+        <v>72977145</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6620</v>
+        <v>6635</v>
       </c>
       <c r="D268" t="n">
-        <v>8559155</v>
+        <v>8577889</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="D269" t="n">
-        <v>4149938</v>
+        <v>4151438</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>11724</v>
+        <v>11737</v>
       </c>
       <c r="D270" t="n">
-        <v>15478387</v>
+        <v>15494313</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>34855</v>
+        <v>34896</v>
       </c>
       <c r="D271" t="n">
-        <v>46553370</v>
+        <v>46603396</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>18292</v>
+        <v>18306</v>
       </c>
       <c r="D272" t="n">
-        <v>23173749</v>
+        <v>23190751</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>20301</v>
+        <v>20312</v>
       </c>
       <c r="D274" t="n">
-        <v>23458746</v>
+        <v>23471807</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>34676</v>
+        <v>34684</v>
       </c>
       <c r="D275" t="n">
-        <v>45640816</v>
+        <v>45649540</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>25686</v>
+        <v>25733</v>
       </c>
       <c r="D276" t="n">
-        <v>30819040</v>
+        <v>30870755</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>41849</v>
+        <v>41872</v>
       </c>
       <c r="D277" t="n">
-        <v>49898292</v>
+        <v>49924201</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>13908</v>
+        <v>13915</v>
       </c>
       <c r="D278" t="n">
-        <v>18709817</v>
+        <v>18720317</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>19512</v>
+        <v>19534</v>
       </c>
       <c r="D280" t="n">
-        <v>24053332</v>
+        <v>24073913</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>58191</v>
+        <v>58192</v>
       </c>
       <c r="D283" t="n">
-        <v>82417483</v>
+        <v>82418983</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>76050</v>
+        <v>76076</v>
       </c>
       <c r="D284" t="n">
-        <v>99762389</v>
+        <v>99796869</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>17068</v>
+        <v>17089</v>
       </c>
       <c r="D285" t="n">
-        <v>23252706</v>
+        <v>23282403</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>63470</v>
+        <v>63528</v>
       </c>
       <c r="D286" t="n">
-        <v>89644025</v>
+        <v>89723627</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7961</v>
+        <v>7973</v>
       </c>
       <c r="D287" t="n">
-        <v>10128198</v>
+        <v>10142987</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>13287</v>
+        <v>13291</v>
       </c>
       <c r="D289" t="n">
-        <v>17701291</v>
+        <v>17706391</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>39960</v>
+        <v>40004</v>
       </c>
       <c r="D290" t="n">
-        <v>53739088</v>
+        <v>53795569</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>19781</v>
+        <v>19794</v>
       </c>
       <c r="D291" t="n">
-        <v>25047102</v>
+        <v>25063629</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>25002</v>
+        <v>25043</v>
       </c>
       <c r="D293" t="n">
-        <v>29046266</v>
+        <v>29089933</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>37979</v>
+        <v>37984</v>
       </c>
       <c r="D294" t="n">
-        <v>50231154</v>
+        <v>50236964</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>30636</v>
+        <v>30713</v>
       </c>
       <c r="D295" t="n">
-        <v>36814973</v>
+        <v>36901683</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>43139</v>
+        <v>43149</v>
       </c>
       <c r="D296" t="n">
-        <v>50048234</v>
+        <v>50058709</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4160</v>
+        <v>4163</v>
       </c>
       <c r="D297" t="n">
-        <v>5802946</v>
+        <v>5806815</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8072</v>
+        <v>8078</v>
       </c>
       <c r="D299" t="n">
-        <v>9921779</v>
+        <v>9926176</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18244</v>
+        <v>18247</v>
       </c>
       <c r="D302" t="n">
-        <v>26121528</v>
+        <v>26125578</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>29102</v>
+        <v>29114</v>
       </c>
       <c r="D303" t="n">
-        <v>38009233</v>
+        <v>38024823</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>24752</v>
+        <v>24761</v>
       </c>
       <c r="D305" t="n">
-        <v>35339123</v>
+        <v>35350952</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3867</v>
+        <v>3874</v>
       </c>
       <c r="D306" t="n">
-        <v>4954209</v>
+        <v>4963114</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5787</v>
+        <v>5790</v>
       </c>
       <c r="D308" t="n">
-        <v>7732753</v>
+        <v>7737253</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>18555</v>
+        <v>18578</v>
       </c>
       <c r="D309" t="n">
-        <v>24930583</v>
+        <v>24957042</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7127</v>
+        <v>7134</v>
       </c>
       <c r="D310" t="n">
-        <v>9260612</v>
+        <v>9270892</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>9097</v>
+        <v>9102</v>
       </c>
       <c r="D311" t="n">
-        <v>10805457</v>
+        <v>10809018</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19309</v>
+        <v>19314</v>
       </c>
       <c r="D312" t="n">
-        <v>25386716</v>
+        <v>25393605</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>14154</v>
+        <v>14169</v>
       </c>
       <c r="D313" t="n">
-        <v>17205585</v>
+        <v>17224360</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>20947</v>
+        <v>20954</v>
       </c>
       <c r="D314" t="n">
-        <v>25653020</v>
+        <v>25660597</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>5703</v>
+        <v>5705</v>
       </c>
       <c r="D315" t="n">
-        <v>7744622</v>
+        <v>7747622</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>18612</v>
+        <v>18626</v>
       </c>
       <c r="D317" t="n">
-        <v>23994778</v>
+        <v>24009049</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>51150</v>
+        <v>51160</v>
       </c>
       <c r="D320" t="n">
-        <v>72906609</v>
+        <v>72919837</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>80782</v>
+        <v>80817</v>
       </c>
       <c r="D321" t="n">
-        <v>107320785</v>
+        <v>107369573</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>30468</v>
+        <v>30491</v>
       </c>
       <c r="D322" t="n">
-        <v>42866267</v>
+        <v>42898908</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>62247</v>
+        <v>62381</v>
       </c>
       <c r="D323" t="n">
-        <v>89493782</v>
+        <v>89687439</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8698</v>
+        <v>8708</v>
       </c>
       <c r="D324" t="n">
-        <v>11351731</v>
+        <v>11366731</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>16645</v>
+        <v>16660</v>
       </c>
       <c r="D326" t="n">
-        <v>22929453</v>
+        <v>22950226</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>43043</v>
+        <v>43093</v>
       </c>
       <c r="D327" t="n">
-        <v>58174754</v>
+        <v>58243106</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>24714</v>
+        <v>24741</v>
       </c>
       <c r="D328" t="n">
-        <v>32182863</v>
+        <v>32217735</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>26702</v>
+        <v>26729</v>
       </c>
       <c r="D330" t="n">
-        <v>32104801</v>
+        <v>32132914</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>28650</v>
+        <v>28700</v>
       </c>
       <c r="D332" t="n">
-        <v>35609440</v>
+        <v>35668148</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>43413</v>
+        <v>43425</v>
       </c>
       <c r="D333" t="n">
-        <v>51729970</v>
+        <v>51745048</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
